--- a/biology/Médecine/1370_en_santé_et_médecine/1370_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1370_en_santé_et_médecine/1370_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1370_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1370_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1370 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1370_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1370_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 janvier : la reine Jeanne, comtesse de Provence, « accorde franchise de la taille et de toutes autres impositions au Juif Bendich Ahin, médecin d'Arles, et à ses héritiers, à cause des services qu'[elle] a reçus de lui[1],[2] ».
-Fondation de l'hôpital Sainte-Marthe à Montpellier par Pierre Gras, bourgeois de la ville[3].
-Fondation de l'hôpital Saint-François à Chambéry en Savoie, voué à l'accueil des enfants trouvés ou abandonnés[4].
-Jean de Rhense, maître de l'école capitulaire de Saint-Castor, fonde « de ses propres deniers » à Coblence, dans la principauté de Trèves en Allemagne, « un hôpital particulier pour les pauvres pèlerins[5] ».
-Hugues Aubriot, prévôt de Paris, fait construire, rue Montmartre, le premier égout couvert de la ville[6].
-Ziliolus de Feracavallis, chapelain de l'hôpital San Lorenzo de Bergame, « est accusé de refuser aux pauvres le gite et le couvert, de menacer de mort ses frères, et d'avoir une relation sexuelle avec une femme de l'hôpital[7] ».
-Année prétendue de l'invention de l'eau de la reine de Hongrie, alcoolat de romarin qui, « après avoir figuré dans les pharmacopées officielles jusqu'au milieu du dix-neuvième siècle, est tombé dans un profond oubli[8],[9] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 janvier : la reine Jeanne, comtesse de Provence, « accorde franchise de la taille et de toutes autres impositions au Juif Bendich Ahin, médecin d'Arles, et à ses héritiers, à cause des services qu'[elle] a reçus de lui, ».
+Fondation de l'hôpital Sainte-Marthe à Montpellier par Pierre Gras, bourgeois de la ville.
+Fondation de l'hôpital Saint-François à Chambéry en Savoie, voué à l'accueil des enfants trouvés ou abandonnés.
+Jean de Rhense, maître de l'école capitulaire de Saint-Castor, fonde « de ses propres deniers » à Coblence, dans la principauté de Trèves en Allemagne, « un hôpital particulier pour les pauvres pèlerins ».
+Hugues Aubriot, prévôt de Paris, fait construire, rue Montmartre, le premier égout couvert de la ville.
+Ziliolus de Feracavallis, chapelain de l'hôpital San Lorenzo de Bergame, « est accusé de refuser aux pauvres le gite et le couvert, de menacer de mort ses frères, et d'avoir une relation sexuelle avec une femme de l'hôpital ».
+Année prétendue de l'invention de l'eau de la reine de Hongrie, alcoolat de romarin qui, « après avoir figuré dans les pharmacopées officielles jusqu'au milieu du dix-neuvième siècle, est tombé dans un profond oubli, ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1370_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1370_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1370 : Guillaume Desjardins (mort en 1438), médecin normand, reçu docteur à Paris, établi à Rouen, favorisé par Henri V, roi d'Angleterre et souverain effectif de la Normandie, chancelier de l'église de Bayeux, « siégea parmi les juges de Jeanne d'Arc, à qui il lui arriva même de donner ses soins » en 1431[10] .</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1370 : Guillaume Desjardins (mort en 1438), médecin normand, reçu docteur à Paris, établi à Rouen, favorisé par Henri V, roi d'Angleterre et souverain effectif de la Normandie, chancelier de l'église de Bayeux, « siégea parmi les juges de Jeanne d'Arc, à qui il lui arriva même de donner ses soins » en 1431 .</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1370_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1370_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Thomas del Garbo (né vers 1305), professeur de médecine à Pérouse et à Bologne, ami de Pétrarque, fils de Dino del Garbo[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thomas del Garbo (né vers 1305), professeur de médecine à Pérouse et à Bologne, ami de Pétrarque, fils de Dino del Garbo.</t>
         </is>
       </c>
     </row>
